--- a/model/dev/vAAE_nnThud_nnShatter_Timing/TabularResults/GBResults.xlsx
+++ b/model/dev/vAAE_nnThud_nnShatter_Timing/TabularResults/GBResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\aspinityGit\glassbreak\model\dev\vAAD_nnThud_nnShatter_Timing\TabularResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E0E0BFE5-01DD-4045-97FF-67137137B8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64776D5A-9898-49E2-A03C-154DB2778AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GBResults" sheetId="1" r:id="rId1"/>
-    <sheet name="noPeaksVsHF-LF" sheetId="4" r:id="rId2"/>
-    <sheet name="5Kvs10K" sheetId="2" r:id="rId3"/>
-    <sheet name="4kHzVs6kHz" sheetId="3" r:id="rId4"/>
+    <sheet name="Summary" sheetId="8" r:id="rId2"/>
+    <sheet name="SelfVsGBTestlipV1" sheetId="7" r:id="rId3"/>
+    <sheet name="noPeaksVsHF" sheetId="6" r:id="rId4"/>
+    <sheet name="HFvsLF" sheetId="5" r:id="rId5"/>
+    <sheet name="noPeakVs(HF-LF)" sheetId="4" r:id="rId6"/>
+    <sheet name="ShatterDelay" sheetId="2" r:id="rId7"/>
+    <sheet name="6kHzVs4kHz" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBResults!$A$1:$T$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBResults!$A$1:$T$253</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="112">
   <si>
     <t>Code Version</t>
   </si>
@@ -324,11 +328,52 @@
   <si>
     <t>115msec</t>
   </si>
+  <si>
+    <t>68.9msec</t>
+  </si>
+  <si>
+    <t>132msec</t>
+  </si>
+  <si>
+    <t>57.1msec</t>
+  </si>
+  <si>
+    <t>103msec</t>
+  </si>
+  <si>
+    <t>114msec</t>
+  </si>
+  <si>
+    <t>88.2msec</t>
+  </si>
+  <si>
+    <t>120msec</t>
+  </si>
+  <si>
+    <t>96.8msec</t>
+  </si>
+  <si>
+    <t>Training with self suggest we need more training data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of TPs when catching low frequency peaks versus high frequency peaks
+suggest thuds are detected at high frequencies. </t>
+  </si>
+  <si>
+    <t>No peaks vs HF peaks having identical results suggests NN detectoin of thuds
+occurs at high frequency peaks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catching missed  TPs by delaying shatter seems to work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6kHz catches a few more TPs but also many more FPs. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,8 +851,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1162,15 +1210,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T225"/>
+  <dimension ref="A1:T253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:T29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2536,7 +2606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2598,7 +2668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2660,7 +2730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2722,7 +2792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2784,7 +2854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2846,7 +2916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2908,7 +2978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2970,7 +3040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3032,7 +3102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -3094,7 +3164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -3218,7 +3288,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3280,7 +3350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3342,7 +3412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -15122,8 +15192,1744 @@
         <v>35</v>
       </c>
     </row>
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226">
+        <v>400</v>
+      </c>
+      <c r="D226">
+        <v>4000</v>
+      </c>
+      <c r="E226">
+        <v>0.3</v>
+      </c>
+      <c r="F226">
+        <v>0.3</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>1E-4</v>
+      </c>
+      <c r="I226">
+        <v>0.15</v>
+      </c>
+      <c r="J226">
+        <v>0.2</v>
+      </c>
+      <c r="K226" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226" t="s">
+        <v>23</v>
+      </c>
+      <c r="M226" t="s">
+        <v>24</v>
+      </c>
+      <c r="N226">
+        <v>5000</v>
+      </c>
+      <c r="O226" t="s">
+        <v>25</v>
+      </c>
+      <c r="P226">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q226">
+        <v>15</v>
+      </c>
+      <c r="R226">
+        <v>20</v>
+      </c>
+      <c r="S226">
+        <v>14</v>
+      </c>
+      <c r="T226" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227">
+        <v>400</v>
+      </c>
+      <c r="D227">
+        <v>4000</v>
+      </c>
+      <c r="E227">
+        <v>0.3</v>
+      </c>
+      <c r="F227">
+        <v>0.3</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1E-4</v>
+      </c>
+      <c r="I227">
+        <v>0.15</v>
+      </c>
+      <c r="J227">
+        <v>0.2</v>
+      </c>
+      <c r="K227" t="s">
+        <v>22</v>
+      </c>
+      <c r="L227" t="s">
+        <v>23</v>
+      </c>
+      <c r="M227" t="s">
+        <v>24</v>
+      </c>
+      <c r="N227">
+        <v>5000</v>
+      </c>
+      <c r="O227" t="s">
+        <v>27</v>
+      </c>
+      <c r="P227">
+        <v>4.12</v>
+      </c>
+      <c r="Q227">
+        <v>38</v>
+      </c>
+      <c r="R227">
+        <v>50</v>
+      </c>
+      <c r="S227">
+        <v>17</v>
+      </c>
+      <c r="T227" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228">
+        <v>400</v>
+      </c>
+      <c r="D228">
+        <v>4000</v>
+      </c>
+      <c r="E228">
+        <v>0.3</v>
+      </c>
+      <c r="F228">
+        <v>0.3</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1E-4</v>
+      </c>
+      <c r="I228">
+        <v>0.15</v>
+      </c>
+      <c r="J228">
+        <v>0.2</v>
+      </c>
+      <c r="K228" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228" t="s">
+        <v>23</v>
+      </c>
+      <c r="M228" t="s">
+        <v>24</v>
+      </c>
+      <c r="N228">
+        <v>5000</v>
+      </c>
+      <c r="O228" t="s">
+        <v>24</v>
+      </c>
+      <c r="P228">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q228">
+        <v>50</v>
+      </c>
+      <c r="R228">
+        <v>50</v>
+      </c>
+      <c r="S228">
+        <v>59</v>
+      </c>
+      <c r="T228" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229">
+        <v>400</v>
+      </c>
+      <c r="D229">
+        <v>4000</v>
+      </c>
+      <c r="E229">
+        <v>0.3</v>
+      </c>
+      <c r="F229">
+        <v>0.3</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>1E-4</v>
+      </c>
+      <c r="I229">
+        <v>0.15</v>
+      </c>
+      <c r="J229">
+        <v>0.2</v>
+      </c>
+      <c r="K229" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229" t="s">
+        <v>23</v>
+      </c>
+      <c r="M229" t="s">
+        <v>24</v>
+      </c>
+      <c r="N229">
+        <v>5000</v>
+      </c>
+      <c r="O229" t="s">
+        <v>30</v>
+      </c>
+      <c r="P229">
+        <v>1.81</v>
+      </c>
+      <c r="Q229">
+        <v>19</v>
+      </c>
+      <c r="R229">
+        <v>23</v>
+      </c>
+      <c r="S229">
+        <v>5</v>
+      </c>
+      <c r="T229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230">
+        <v>400</v>
+      </c>
+      <c r="D230">
+        <v>4000</v>
+      </c>
+      <c r="E230">
+        <v>0.3</v>
+      </c>
+      <c r="F230">
+        <v>0.3</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>1E-4</v>
+      </c>
+      <c r="I230">
+        <v>0.15</v>
+      </c>
+      <c r="J230">
+        <v>0.2</v>
+      </c>
+      <c r="K230" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230" t="s">
+        <v>23</v>
+      </c>
+      <c r="M230" t="s">
+        <v>24</v>
+      </c>
+      <c r="N230">
+        <v>5000</v>
+      </c>
+      <c r="O230" t="s">
+        <v>32</v>
+      </c>
+      <c r="P230">
+        <v>0.45</v>
+      </c>
+      <c r="Q230">
+        <v>4</v>
+      </c>
+      <c r="R230">
+        <v>5</v>
+      </c>
+      <c r="S230">
+        <v>6</v>
+      </c>
+      <c r="T230" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231">
+        <v>400</v>
+      </c>
+      <c r="D231">
+        <v>4000</v>
+      </c>
+      <c r="E231">
+        <v>0.3</v>
+      </c>
+      <c r="F231">
+        <v>0.3</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>1E-4</v>
+      </c>
+      <c r="I231">
+        <v>0.15</v>
+      </c>
+      <c r="J231">
+        <v>0.2</v>
+      </c>
+      <c r="K231" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231" t="s">
+        <v>23</v>
+      </c>
+      <c r="M231" t="s">
+        <v>24</v>
+      </c>
+      <c r="N231">
+        <v>5000</v>
+      </c>
+      <c r="O231" t="s">
+        <v>34</v>
+      </c>
+      <c r="P231">
+        <v>24.86</v>
+      </c>
+      <c r="Q231">
+        <v>126</v>
+      </c>
+      <c r="R231">
+        <v>148</v>
+      </c>
+      <c r="S231">
+        <v>250</v>
+      </c>
+      <c r="T231" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232">
+        <v>400</v>
+      </c>
+      <c r="D232">
+        <v>4000</v>
+      </c>
+      <c r="E232">
+        <v>0.3</v>
+      </c>
+      <c r="F232">
+        <v>0.3</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>1E-4</v>
+      </c>
+      <c r="I232">
+        <v>0.15</v>
+      </c>
+      <c r="J232">
+        <v>0.2</v>
+      </c>
+      <c r="K232" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232" t="s">
+        <v>23</v>
+      </c>
+      <c r="M232" t="s">
+        <v>24</v>
+      </c>
+      <c r="N232">
+        <v>5000</v>
+      </c>
+      <c r="O232" t="s">
+        <v>36</v>
+      </c>
+      <c r="P232">
+        <v>30</v>
+      </c>
+      <c r="Q232">
+        <v>126</v>
+      </c>
+      <c r="R232">
+        <v>148</v>
+      </c>
+      <c r="S232">
+        <v>460</v>
+      </c>
+      <c r="T232" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" t="s">
+        <v>21</v>
+      </c>
+      <c r="C233">
+        <v>400</v>
+      </c>
+      <c r="D233">
+        <v>4000</v>
+      </c>
+      <c r="E233">
+        <v>0.3</v>
+      </c>
+      <c r="F233">
+        <v>0.3</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1E-4</v>
+      </c>
+      <c r="I233">
+        <v>0.15</v>
+      </c>
+      <c r="J233">
+        <v>0.2</v>
+      </c>
+      <c r="K233" t="s">
+        <v>37</v>
+      </c>
+      <c r="L233" t="s">
+        <v>23</v>
+      </c>
+      <c r="M233" t="s">
+        <v>24</v>
+      </c>
+      <c r="N233">
+        <v>5000</v>
+      </c>
+      <c r="O233" t="s">
+        <v>25</v>
+      </c>
+      <c r="P233">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q233">
+        <v>2</v>
+      </c>
+      <c r="R233">
+        <v>20</v>
+      </c>
+      <c r="S233">
+        <v>1</v>
+      </c>
+      <c r="T233" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234">
+        <v>400</v>
+      </c>
+      <c r="D234">
+        <v>4000</v>
+      </c>
+      <c r="E234">
+        <v>0.3</v>
+      </c>
+      <c r="F234">
+        <v>0.3</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>1E-4</v>
+      </c>
+      <c r="I234">
+        <v>0.15</v>
+      </c>
+      <c r="J234">
+        <v>0.2</v>
+      </c>
+      <c r="K234" t="s">
+        <v>37</v>
+      </c>
+      <c r="L234" t="s">
+        <v>23</v>
+      </c>
+      <c r="M234" t="s">
+        <v>24</v>
+      </c>
+      <c r="N234">
+        <v>5000</v>
+      </c>
+      <c r="O234" t="s">
+        <v>27</v>
+      </c>
+      <c r="P234">
+        <v>4.12</v>
+      </c>
+      <c r="Q234">
+        <v>4</v>
+      </c>
+      <c r="R234">
+        <v>50</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235">
+        <v>400</v>
+      </c>
+      <c r="D235">
+        <v>4000</v>
+      </c>
+      <c r="E235">
+        <v>0.3</v>
+      </c>
+      <c r="F235">
+        <v>0.3</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>1E-4</v>
+      </c>
+      <c r="I235">
+        <v>0.15</v>
+      </c>
+      <c r="J235">
+        <v>0.2</v>
+      </c>
+      <c r="K235" t="s">
+        <v>37</v>
+      </c>
+      <c r="L235" t="s">
+        <v>23</v>
+      </c>
+      <c r="M235" t="s">
+        <v>24</v>
+      </c>
+      <c r="N235">
+        <v>5000</v>
+      </c>
+      <c r="O235" t="s">
+        <v>24</v>
+      </c>
+      <c r="P235">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q235">
+        <v>19</v>
+      </c>
+      <c r="R235">
+        <v>50</v>
+      </c>
+      <c r="S235">
+        <v>16</v>
+      </c>
+      <c r="T235" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236">
+        <v>400</v>
+      </c>
+      <c r="D236">
+        <v>4000</v>
+      </c>
+      <c r="E236">
+        <v>0.3</v>
+      </c>
+      <c r="F236">
+        <v>0.3</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>1E-4</v>
+      </c>
+      <c r="I236">
+        <v>0.15</v>
+      </c>
+      <c r="J236">
+        <v>0.2</v>
+      </c>
+      <c r="K236" t="s">
+        <v>37</v>
+      </c>
+      <c r="L236" t="s">
+        <v>23</v>
+      </c>
+      <c r="M236" t="s">
+        <v>24</v>
+      </c>
+      <c r="N236">
+        <v>5000</v>
+      </c>
+      <c r="O236" t="s">
+        <v>30</v>
+      </c>
+      <c r="P236">
+        <v>1.81</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <v>23</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237">
+        <v>400</v>
+      </c>
+      <c r="D237">
+        <v>4000</v>
+      </c>
+      <c r="E237">
+        <v>0.3</v>
+      </c>
+      <c r="F237">
+        <v>0.3</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1E-4</v>
+      </c>
+      <c r="I237">
+        <v>0.15</v>
+      </c>
+      <c r="J237">
+        <v>0.2</v>
+      </c>
+      <c r="K237" t="s">
+        <v>37</v>
+      </c>
+      <c r="L237" t="s">
+        <v>23</v>
+      </c>
+      <c r="M237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N237">
+        <v>5000</v>
+      </c>
+      <c r="O237" t="s">
+        <v>32</v>
+      </c>
+      <c r="P237">
+        <v>0.45</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>5</v>
+      </c>
+      <c r="S237">
+        <v>1</v>
+      </c>
+      <c r="T237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238">
+        <v>400</v>
+      </c>
+      <c r="D238">
+        <v>4000</v>
+      </c>
+      <c r="E238">
+        <v>0.3</v>
+      </c>
+      <c r="F238">
+        <v>0.3</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>1E-4</v>
+      </c>
+      <c r="I238">
+        <v>0.15</v>
+      </c>
+      <c r="J238">
+        <v>0.2</v>
+      </c>
+      <c r="K238" t="s">
+        <v>37</v>
+      </c>
+      <c r="L238" t="s">
+        <v>23</v>
+      </c>
+      <c r="M238" t="s">
+        <v>24</v>
+      </c>
+      <c r="N238">
+        <v>5000</v>
+      </c>
+      <c r="O238" t="s">
+        <v>34</v>
+      </c>
+      <c r="P238">
+        <v>24.86</v>
+      </c>
+      <c r="Q238">
+        <v>27</v>
+      </c>
+      <c r="R238">
+        <v>148</v>
+      </c>
+      <c r="S238">
+        <v>41</v>
+      </c>
+      <c r="T238" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239">
+        <v>400</v>
+      </c>
+      <c r="D239">
+        <v>4000</v>
+      </c>
+      <c r="E239">
+        <v>0.3</v>
+      </c>
+      <c r="F239">
+        <v>0.3</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>1E-4</v>
+      </c>
+      <c r="I239">
+        <v>0.15</v>
+      </c>
+      <c r="J239">
+        <v>0.2</v>
+      </c>
+      <c r="K239" t="s">
+        <v>37</v>
+      </c>
+      <c r="L239" t="s">
+        <v>23</v>
+      </c>
+      <c r="M239" t="s">
+        <v>24</v>
+      </c>
+      <c r="N239">
+        <v>5000</v>
+      </c>
+      <c r="O239" t="s">
+        <v>36</v>
+      </c>
+      <c r="P239">
+        <v>30</v>
+      </c>
+      <c r="Q239">
+        <v>27</v>
+      </c>
+      <c r="R239">
+        <v>148</v>
+      </c>
+      <c r="S239">
+        <v>73</v>
+      </c>
+      <c r="T239" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240">
+        <v>400</v>
+      </c>
+      <c r="D240">
+        <v>4000</v>
+      </c>
+      <c r="E240">
+        <v>0.3</v>
+      </c>
+      <c r="F240">
+        <v>0.3</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1E-4</v>
+      </c>
+      <c r="I240">
+        <v>0.15</v>
+      </c>
+      <c r="J240">
+        <v>0.2</v>
+      </c>
+      <c r="K240" t="s">
+        <v>44</v>
+      </c>
+      <c r="L240" t="s">
+        <v>23</v>
+      </c>
+      <c r="M240" t="s">
+        <v>24</v>
+      </c>
+      <c r="N240">
+        <v>5000</v>
+      </c>
+      <c r="O240" t="s">
+        <v>25</v>
+      </c>
+      <c r="P240">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q240">
+        <v>15</v>
+      </c>
+      <c r="R240">
+        <v>20</v>
+      </c>
+      <c r="S240">
+        <v>14</v>
+      </c>
+      <c r="T240" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241">
+        <v>400</v>
+      </c>
+      <c r="D241">
+        <v>4000</v>
+      </c>
+      <c r="E241">
+        <v>0.3</v>
+      </c>
+      <c r="F241">
+        <v>0.3</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>1E-4</v>
+      </c>
+      <c r="I241">
+        <v>0.15</v>
+      </c>
+      <c r="J241">
+        <v>0.2</v>
+      </c>
+      <c r="K241" t="s">
+        <v>44</v>
+      </c>
+      <c r="L241" t="s">
+        <v>23</v>
+      </c>
+      <c r="M241" t="s">
+        <v>24</v>
+      </c>
+      <c r="N241">
+        <v>5000</v>
+      </c>
+      <c r="O241" t="s">
+        <v>27</v>
+      </c>
+      <c r="P241">
+        <v>4.12</v>
+      </c>
+      <c r="Q241">
+        <v>38</v>
+      </c>
+      <c r="R241">
+        <v>50</v>
+      </c>
+      <c r="S241">
+        <v>17</v>
+      </c>
+      <c r="T241" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242">
+        <v>400</v>
+      </c>
+      <c r="D242">
+        <v>4000</v>
+      </c>
+      <c r="E242">
+        <v>0.3</v>
+      </c>
+      <c r="F242">
+        <v>0.3</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>1E-4</v>
+      </c>
+      <c r="I242">
+        <v>0.15</v>
+      </c>
+      <c r="J242">
+        <v>0.2</v>
+      </c>
+      <c r="K242" t="s">
+        <v>44</v>
+      </c>
+      <c r="L242" t="s">
+        <v>23</v>
+      </c>
+      <c r="M242" t="s">
+        <v>24</v>
+      </c>
+      <c r="N242">
+        <v>5000</v>
+      </c>
+      <c r="O242" t="s">
+        <v>24</v>
+      </c>
+      <c r="P242">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q242">
+        <v>50</v>
+      </c>
+      <c r="R242">
+        <v>50</v>
+      </c>
+      <c r="S242">
+        <v>59</v>
+      </c>
+      <c r="T242" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243">
+        <v>400</v>
+      </c>
+      <c r="D243">
+        <v>4000</v>
+      </c>
+      <c r="E243">
+        <v>0.3</v>
+      </c>
+      <c r="F243">
+        <v>0.3</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1E-4</v>
+      </c>
+      <c r="I243">
+        <v>0.15</v>
+      </c>
+      <c r="J243">
+        <v>0.2</v>
+      </c>
+      <c r="K243" t="s">
+        <v>44</v>
+      </c>
+      <c r="L243" t="s">
+        <v>23</v>
+      </c>
+      <c r="M243" t="s">
+        <v>24</v>
+      </c>
+      <c r="N243">
+        <v>5000</v>
+      </c>
+      <c r="O243" t="s">
+        <v>30</v>
+      </c>
+      <c r="P243">
+        <v>1.81</v>
+      </c>
+      <c r="Q243">
+        <v>19</v>
+      </c>
+      <c r="R243">
+        <v>23</v>
+      </c>
+      <c r="S243">
+        <v>5</v>
+      </c>
+      <c r="T243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244">
+        <v>400</v>
+      </c>
+      <c r="D244">
+        <v>4000</v>
+      </c>
+      <c r="E244">
+        <v>0.3</v>
+      </c>
+      <c r="F244">
+        <v>0.3</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1E-4</v>
+      </c>
+      <c r="I244">
+        <v>0.15</v>
+      </c>
+      <c r="J244">
+        <v>0.2</v>
+      </c>
+      <c r="K244" t="s">
+        <v>44</v>
+      </c>
+      <c r="L244" t="s">
+        <v>23</v>
+      </c>
+      <c r="M244" t="s">
+        <v>24</v>
+      </c>
+      <c r="N244">
+        <v>5000</v>
+      </c>
+      <c r="O244" t="s">
+        <v>32</v>
+      </c>
+      <c r="P244">
+        <v>0.45</v>
+      </c>
+      <c r="Q244">
+        <v>4</v>
+      </c>
+      <c r="R244">
+        <v>5</v>
+      </c>
+      <c r="S244">
+        <v>6</v>
+      </c>
+      <c r="T244" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245">
+        <v>400</v>
+      </c>
+      <c r="D245">
+        <v>4000</v>
+      </c>
+      <c r="E245">
+        <v>0.3</v>
+      </c>
+      <c r="F245">
+        <v>0.3</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>1E-4</v>
+      </c>
+      <c r="I245">
+        <v>0.15</v>
+      </c>
+      <c r="J245">
+        <v>0.2</v>
+      </c>
+      <c r="K245" t="s">
+        <v>44</v>
+      </c>
+      <c r="L245" t="s">
+        <v>23</v>
+      </c>
+      <c r="M245" t="s">
+        <v>24</v>
+      </c>
+      <c r="N245">
+        <v>5000</v>
+      </c>
+      <c r="O245" t="s">
+        <v>34</v>
+      </c>
+      <c r="P245">
+        <v>24.86</v>
+      </c>
+      <c r="Q245">
+        <v>126</v>
+      </c>
+      <c r="R245">
+        <v>148</v>
+      </c>
+      <c r="S245">
+        <v>250</v>
+      </c>
+      <c r="T245" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246">
+        <v>400</v>
+      </c>
+      <c r="D246">
+        <v>4000</v>
+      </c>
+      <c r="E246">
+        <v>0.3</v>
+      </c>
+      <c r="F246">
+        <v>0.3</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1E-4</v>
+      </c>
+      <c r="I246">
+        <v>0.15</v>
+      </c>
+      <c r="J246">
+        <v>0.2</v>
+      </c>
+      <c r="K246" t="s">
+        <v>44</v>
+      </c>
+      <c r="L246" t="s">
+        <v>23</v>
+      </c>
+      <c r="M246" t="s">
+        <v>24</v>
+      </c>
+      <c r="N246">
+        <v>5000</v>
+      </c>
+      <c r="O246" t="s">
+        <v>36</v>
+      </c>
+      <c r="P246">
+        <v>30</v>
+      </c>
+      <c r="Q246">
+        <v>126</v>
+      </c>
+      <c r="R246">
+        <v>148</v>
+      </c>
+      <c r="S246">
+        <v>460</v>
+      </c>
+      <c r="T246" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247">
+        <v>400</v>
+      </c>
+      <c r="D247">
+        <v>4000</v>
+      </c>
+      <c r="E247">
+        <v>0.3</v>
+      </c>
+      <c r="F247">
+        <v>0.3</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1E-4</v>
+      </c>
+      <c r="I247">
+        <v>0.15</v>
+      </c>
+      <c r="J247">
+        <v>0.2</v>
+      </c>
+      <c r="K247" t="s">
+        <v>45</v>
+      </c>
+      <c r="L247" t="s">
+        <v>23</v>
+      </c>
+      <c r="M247" t="s">
+        <v>24</v>
+      </c>
+      <c r="N247">
+        <v>5000</v>
+      </c>
+      <c r="O247" t="s">
+        <v>25</v>
+      </c>
+      <c r="P247">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q247">
+        <v>15</v>
+      </c>
+      <c r="R247">
+        <v>20</v>
+      </c>
+      <c r="S247">
+        <v>14</v>
+      </c>
+      <c r="T247" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>400</v>
+      </c>
+      <c r="D248">
+        <v>4000</v>
+      </c>
+      <c r="E248">
+        <v>0.3</v>
+      </c>
+      <c r="F248">
+        <v>0.3</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>1E-4</v>
+      </c>
+      <c r="I248">
+        <v>0.15</v>
+      </c>
+      <c r="J248">
+        <v>0.2</v>
+      </c>
+      <c r="K248" t="s">
+        <v>45</v>
+      </c>
+      <c r="L248" t="s">
+        <v>23</v>
+      </c>
+      <c r="M248" t="s">
+        <v>24</v>
+      </c>
+      <c r="N248">
+        <v>5000</v>
+      </c>
+      <c r="O248" t="s">
+        <v>27</v>
+      </c>
+      <c r="P248">
+        <v>4.12</v>
+      </c>
+      <c r="Q248">
+        <v>38</v>
+      </c>
+      <c r="R248">
+        <v>50</v>
+      </c>
+      <c r="S248">
+        <v>17</v>
+      </c>
+      <c r="T248" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249">
+        <v>400</v>
+      </c>
+      <c r="D249">
+        <v>4000</v>
+      </c>
+      <c r="E249">
+        <v>0.3</v>
+      </c>
+      <c r="F249">
+        <v>0.3</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>1E-4</v>
+      </c>
+      <c r="I249">
+        <v>0.15</v>
+      </c>
+      <c r="J249">
+        <v>0.2</v>
+      </c>
+      <c r="K249" t="s">
+        <v>45</v>
+      </c>
+      <c r="L249" t="s">
+        <v>23</v>
+      </c>
+      <c r="M249" t="s">
+        <v>24</v>
+      </c>
+      <c r="N249">
+        <v>5000</v>
+      </c>
+      <c r="O249" t="s">
+        <v>24</v>
+      </c>
+      <c r="P249">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q249">
+        <v>50</v>
+      </c>
+      <c r="R249">
+        <v>50</v>
+      </c>
+      <c r="S249">
+        <v>59</v>
+      </c>
+      <c r="T249" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250">
+        <v>400</v>
+      </c>
+      <c r="D250">
+        <v>4000</v>
+      </c>
+      <c r="E250">
+        <v>0.3</v>
+      </c>
+      <c r="F250">
+        <v>0.3</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>1E-4</v>
+      </c>
+      <c r="I250">
+        <v>0.15</v>
+      </c>
+      <c r="J250">
+        <v>0.2</v>
+      </c>
+      <c r="K250" t="s">
+        <v>45</v>
+      </c>
+      <c r="L250" t="s">
+        <v>23</v>
+      </c>
+      <c r="M250" t="s">
+        <v>24</v>
+      </c>
+      <c r="N250">
+        <v>5000</v>
+      </c>
+      <c r="O250" t="s">
+        <v>30</v>
+      </c>
+      <c r="P250">
+        <v>1.81</v>
+      </c>
+      <c r="Q250">
+        <v>19</v>
+      </c>
+      <c r="R250">
+        <v>23</v>
+      </c>
+      <c r="S250">
+        <v>5</v>
+      </c>
+      <c r="T250" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" t="s">
+        <v>21</v>
+      </c>
+      <c r="C251">
+        <v>400</v>
+      </c>
+      <c r="D251">
+        <v>4000</v>
+      </c>
+      <c r="E251">
+        <v>0.3</v>
+      </c>
+      <c r="F251">
+        <v>0.3</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>1E-4</v>
+      </c>
+      <c r="I251">
+        <v>0.15</v>
+      </c>
+      <c r="J251">
+        <v>0.2</v>
+      </c>
+      <c r="K251" t="s">
+        <v>45</v>
+      </c>
+      <c r="L251" t="s">
+        <v>23</v>
+      </c>
+      <c r="M251" t="s">
+        <v>24</v>
+      </c>
+      <c r="N251">
+        <v>5000</v>
+      </c>
+      <c r="O251" t="s">
+        <v>32</v>
+      </c>
+      <c r="P251">
+        <v>0.45</v>
+      </c>
+      <c r="Q251">
+        <v>4</v>
+      </c>
+      <c r="R251">
+        <v>5</v>
+      </c>
+      <c r="S251">
+        <v>6</v>
+      </c>
+      <c r="T251" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252">
+        <v>400</v>
+      </c>
+      <c r="D252">
+        <v>4000</v>
+      </c>
+      <c r="E252">
+        <v>0.3</v>
+      </c>
+      <c r="F252">
+        <v>0.3</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1E-4</v>
+      </c>
+      <c r="I252">
+        <v>0.15</v>
+      </c>
+      <c r="J252">
+        <v>0.2</v>
+      </c>
+      <c r="K252" t="s">
+        <v>45</v>
+      </c>
+      <c r="L252" t="s">
+        <v>23</v>
+      </c>
+      <c r="M252" t="s">
+        <v>24</v>
+      </c>
+      <c r="N252">
+        <v>5000</v>
+      </c>
+      <c r="O252" t="s">
+        <v>34</v>
+      </c>
+      <c r="P252">
+        <v>24.86</v>
+      </c>
+      <c r="Q252">
+        <v>126</v>
+      </c>
+      <c r="R252">
+        <v>148</v>
+      </c>
+      <c r="S252">
+        <v>250</v>
+      </c>
+      <c r="T252" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" t="s">
+        <v>21</v>
+      </c>
+      <c r="C253">
+        <v>400</v>
+      </c>
+      <c r="D253">
+        <v>4000</v>
+      </c>
+      <c r="E253">
+        <v>0.3</v>
+      </c>
+      <c r="F253">
+        <v>0.3</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>1E-4</v>
+      </c>
+      <c r="I253">
+        <v>0.15</v>
+      </c>
+      <c r="J253">
+        <v>0.2</v>
+      </c>
+      <c r="K253" t="s">
+        <v>45</v>
+      </c>
+      <c r="L253" t="s">
+        <v>23</v>
+      </c>
+      <c r="M253" t="s">
+        <v>24</v>
+      </c>
+      <c r="N253">
+        <v>5000</v>
+      </c>
+      <c r="O253" t="s">
+        <v>36</v>
+      </c>
+      <c r="P253">
+        <v>30</v>
+      </c>
+      <c r="Q253">
+        <v>126</v>
+      </c>
+      <c r="R253">
+        <v>148</v>
+      </c>
+      <c r="S253">
+        <v>460</v>
+      </c>
+      <c r="T253" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T225">
+  <autoFilter ref="A1:T253" xr:uid="{80A51DF4-874D-47D4-B74F-B8E10C7EAF99}">
     <filterColumn colId="3">
       <filters>
         <filter val="4000"/>
@@ -15134,15 +16940,14 @@
         <filter val="0"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="0.05"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="10">
       <filters>
-        <filter val="hf-lf"/>
         <filter val="noPeaks"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="GB_TestClip_Training_v1_16000"/>
       </filters>
     </filterColumn>
     <filterColumn colId="13">
@@ -15156,853 +16961,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4140E07A-6E05-4949-A518-28E8CC320B73}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="73.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>400</v>
-      </c>
-      <c r="B2">
-        <v>4000</v>
-      </c>
-      <c r="C2">
-        <v>0.3</v>
-      </c>
-      <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>0.15</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2">
-        <v>5000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="O2">
-        <v>17</v>
-      </c>
-      <c r="P2">
-        <v>20</v>
-      </c>
-      <c r="Q2">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>400</v>
-      </c>
-      <c r="B3">
-        <v>4000</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
-      <c r="G3">
-        <v>0.15</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3">
-        <v>5000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3">
-        <v>4.12</v>
-      </c>
-      <c r="O3">
-        <v>39</v>
-      </c>
-      <c r="P3">
-        <v>50</v>
-      </c>
-      <c r="Q3">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>400</v>
-      </c>
-      <c r="B4">
-        <v>4000</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.05</v>
-      </c>
-      <c r="G4">
-        <v>0.15</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4">
-        <v>5000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="O4">
-        <v>50</v>
-      </c>
-      <c r="P4">
-        <v>50</v>
-      </c>
-      <c r="Q4">
-        <v>63</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>400</v>
-      </c>
-      <c r="B5">
-        <v>4000</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.05</v>
-      </c>
-      <c r="G5">
-        <v>0.15</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5">
-        <v>5000</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>1.81</v>
-      </c>
-      <c r="O5">
-        <v>19</v>
-      </c>
-      <c r="P5">
-        <v>23</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.05</v>
-      </c>
-      <c r="G6">
-        <v>0.15</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6">
-        <v>5000</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6">
-        <v>0.45</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>8</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>400</v>
-      </c>
-      <c r="B7">
-        <v>4000</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.05</v>
-      </c>
-      <c r="G7">
-        <v>0.15</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>5000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7">
-        <v>24.86</v>
-      </c>
-      <c r="O7">
-        <v>130</v>
-      </c>
-      <c r="P7">
-        <v>148</v>
-      </c>
-      <c r="Q7">
-        <v>376</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>400</v>
-      </c>
-      <c r="B8">
-        <v>4000</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8">
-        <v>0.3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.05</v>
-      </c>
-      <c r="G8">
-        <v>0.15</v>
-      </c>
-      <c r="H8">
-        <v>0.2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8">
-        <v>5000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="O8">
-        <v>130</v>
-      </c>
-      <c r="P8">
-        <v>148</v>
-      </c>
-      <c r="Q8">
-        <v>596</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>400</v>
-      </c>
-      <c r="B9">
-        <v>4000</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9">
-        <v>0.3</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.05</v>
-      </c>
-      <c r="G9">
-        <v>0.15</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9">
-        <v>5000</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="O9">
-        <v>17</v>
-      </c>
-      <c r="P9">
-        <v>20</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>400</v>
-      </c>
-      <c r="B10">
-        <v>4000</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.05</v>
-      </c>
-      <c r="G10">
-        <v>0.15</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10">
-        <v>5000</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>4.12</v>
-      </c>
-      <c r="O10">
-        <v>39</v>
-      </c>
-      <c r="P10">
-        <v>50</v>
-      </c>
-      <c r="Q10">
-        <v>24</v>
-      </c>
-      <c r="R10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>400</v>
-      </c>
-      <c r="B11">
-        <v>4000</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11">
-        <v>0.3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.05</v>
-      </c>
-      <c r="G11">
-        <v>0.15</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11">
-        <v>5000</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="O11">
-        <v>50</v>
-      </c>
-      <c r="P11">
-        <v>50</v>
-      </c>
-      <c r="Q11">
-        <v>63</v>
-      </c>
-      <c r="R11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>400</v>
-      </c>
-      <c r="B12">
-        <v>4000</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12">
-        <v>0.3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.05</v>
-      </c>
-      <c r="G12">
-        <v>0.15</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12">
-        <v>5000</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12">
-        <v>1.81</v>
-      </c>
-      <c r="O12">
-        <v>19</v>
-      </c>
-      <c r="P12">
-        <v>23</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>400</v>
-      </c>
-      <c r="B13">
-        <v>4000</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.05</v>
-      </c>
-      <c r="G13">
-        <v>0.15</v>
-      </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13">
-        <v>5000</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13">
-        <v>0.45</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="R13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>400</v>
-      </c>
-      <c r="B14">
-        <v>4000</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14">
-        <v>0.3</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
-      <c r="G14">
-        <v>0.15</v>
-      </c>
-      <c r="H14">
-        <v>0.2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14">
-        <v>5000</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14">
-        <v>24.86</v>
-      </c>
-      <c r="O14">
-        <v>130</v>
-      </c>
-      <c r="P14">
-        <v>148</v>
-      </c>
-      <c r="Q14">
-        <v>376</v>
-      </c>
-      <c r="R14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>400</v>
-      </c>
-      <c r="B15">
-        <v>4000</v>
-      </c>
-      <c r="C15">
-        <v>0.3</v>
-      </c>
-      <c r="D15">
-        <v>0.3</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.05</v>
-      </c>
-      <c r="G15">
-        <v>0.15</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15">
-        <v>5000</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15">
-        <v>30</v>
-      </c>
-      <c r="O15">
-        <v>130</v>
-      </c>
-      <c r="P15">
-        <v>148</v>
-      </c>
-      <c r="Q15">
-        <v>596</v>
-      </c>
-      <c r="R15" t="s">
-        <v>35</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -16011,11 +17004,959 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938CFD36-3758-47EB-926D-41D7BAA2B783}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="27.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0.15</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>5000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.15</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>4.12</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q4">
+        <v>50</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>1.81</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>0.45</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.15</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>24.86</v>
+      </c>
+      <c r="Q7">
+        <v>130</v>
+      </c>
+      <c r="R7">
+        <v>148</v>
+      </c>
+      <c r="S7">
+        <v>376</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>130</v>
+      </c>
+      <c r="R8">
+        <v>148</v>
+      </c>
+      <c r="S8">
+        <v>596</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9">
+        <v>5000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10">
+        <v>5000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>4.12</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11">
+        <v>5000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>63</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12">
+        <v>5000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>1.81</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <v>23</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>4000</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>0.15</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13">
+        <v>5000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>0.45</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14">
+        <v>5000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>24.86</v>
+      </c>
+      <c r="Q14">
+        <v>142</v>
+      </c>
+      <c r="R14">
+        <v>148</v>
+      </c>
+      <c r="S14">
+        <v>153</v>
+      </c>
+      <c r="T14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>4000</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15">
+        <v>0.15</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>5000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>84</v>
+      </c>
+      <c r="R15">
+        <v>148</v>
+      </c>
+      <c r="S15">
+        <v>47</v>
+      </c>
+      <c r="T15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B979F-5ED6-46C8-9920-74250EF92385}">
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16548,7 +18489,7 @@
         <v>0.2</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -16557,7 +18498,7 @@
         <v>24</v>
       </c>
       <c r="N9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -16610,7 +18551,7 @@
         <v>0.2</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -16619,7 +18560,7 @@
         <v>24</v>
       </c>
       <c r="N10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="s">
         <v>27</v>
@@ -16672,7 +18613,7 @@
         <v>0.2</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
@@ -16681,7 +18622,7 @@
         <v>24</v>
       </c>
       <c r="N11">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
@@ -16734,7 +18675,7 @@
         <v>0.2</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -16743,7 +18684,7 @@
         <v>24</v>
       </c>
       <c r="N12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="s">
         <v>30</v>
@@ -16796,7 +18737,7 @@
         <v>0.2</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -16805,7 +18746,7 @@
         <v>24</v>
       </c>
       <c r="N13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="s">
         <v>32</v>
@@ -16858,7 +18799,7 @@
         <v>0.2</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -16867,7 +18808,7 @@
         <v>24</v>
       </c>
       <c r="N14">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
@@ -16920,7 +18861,7 @@
         <v>0.2</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -16929,7 +18870,7 @@
         <v>24</v>
       </c>
       <c r="N15">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="s">
         <v>36</v>
@@ -16955,12 +18896,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066C1513-FFBF-44E2-B429-3A5DEB4CD87A}">
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17059,6 +19000,2841 @@
         <v>0.2</v>
       </c>
       <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>5000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.15</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>4.12</v>
+      </c>
+      <c r="Q3">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q4">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>1.81</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>0.45</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.15</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>24.86</v>
+      </c>
+      <c r="Q7">
+        <v>89</v>
+      </c>
+      <c r="R7">
+        <v>148</v>
+      </c>
+      <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>89</v>
+      </c>
+      <c r="R8">
+        <v>148</v>
+      </c>
+      <c r="S8">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>5000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>5000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>4.12</v>
+      </c>
+      <c r="Q10">
+        <v>39</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11">
+        <v>5000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>63</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>5000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>1.81</v>
+      </c>
+      <c r="Q12">
+        <v>19</v>
+      </c>
+      <c r="R12">
+        <v>23</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>4000</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>0.15</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>5000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>0.45</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>5000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>24.86</v>
+      </c>
+      <c r="Q14">
+        <v>130</v>
+      </c>
+      <c r="R14">
+        <v>148</v>
+      </c>
+      <c r="S14">
+        <v>376</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>4000</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15">
+        <v>0.15</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>5000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>130</v>
+      </c>
+      <c r="R15">
+        <v>148</v>
+      </c>
+      <c r="S15">
+        <v>596</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18AF1CF-54FE-406C-BA95-A6F1E44F5635}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0.15</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>5000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.15</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>4.12</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q4">
+        <v>50</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>1.81</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>0.45</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.15</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>24.86</v>
+      </c>
+      <c r="Q7">
+        <v>130</v>
+      </c>
+      <c r="R7">
+        <v>148</v>
+      </c>
+      <c r="S7">
+        <v>376</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>130</v>
+      </c>
+      <c r="R8">
+        <v>148</v>
+      </c>
+      <c r="S8">
+        <v>596</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>5000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>5000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>4.12</v>
+      </c>
+      <c r="Q10">
+        <v>39</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.05</v>
+      </c>
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11">
+        <v>5000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>63</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>5000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>1.81</v>
+      </c>
+      <c r="Q12">
+        <v>19</v>
+      </c>
+      <c r="R12">
+        <v>23</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>4000</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>0.15</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>5000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>0.45</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>5000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>24.86</v>
+      </c>
+      <c r="Q14">
+        <v>130</v>
+      </c>
+      <c r="R14">
+        <v>148</v>
+      </c>
+      <c r="S14">
+        <v>376</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>4000</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15">
+        <v>0.15</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>5000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>130</v>
+      </c>
+      <c r="R15">
+        <v>148</v>
+      </c>
+      <c r="S15">
+        <v>596</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C964CEB-77E4-4F8C-9038-6CE6C37C4BEF}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0.15</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>5000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.15</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>4.12</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q4">
+        <v>50</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>1.81</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>0.45</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.15</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>24.86</v>
+      </c>
+      <c r="Q7">
+        <v>130</v>
+      </c>
+      <c r="R7">
+        <v>148</v>
+      </c>
+      <c r="S7">
+        <v>376</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>130</v>
+      </c>
+      <c r="R8">
+        <v>148</v>
+      </c>
+      <c r="S8">
+        <v>596</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1E-4</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>5000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>14</v>
+      </c>
+      <c r="T9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1E-4</v>
+      </c>
+      <c r="I10">
+        <v>0.15</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>5000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>4.12</v>
+      </c>
+      <c r="Q10">
+        <v>38</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>17</v>
+      </c>
+      <c r="T10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1E-4</v>
+      </c>
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11">
+        <v>5000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>59</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>4000</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1E-4</v>
+      </c>
+      <c r="I12">
+        <v>0.15</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>5000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>1.81</v>
+      </c>
+      <c r="Q12">
+        <v>19</v>
+      </c>
+      <c r="R12">
+        <v>23</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>4000</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1E-4</v>
+      </c>
+      <c r="I13">
+        <v>0.15</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>5000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>0.45</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1E-4</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>5000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>24.86</v>
+      </c>
+      <c r="Q14">
+        <v>126</v>
+      </c>
+      <c r="R14">
+        <v>148</v>
+      </c>
+      <c r="S14">
+        <v>250</v>
+      </c>
+      <c r="T14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>4000</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1E-4</v>
+      </c>
+      <c r="I15">
+        <v>0.15</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>5000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>126</v>
+      </c>
+      <c r="R15">
+        <v>148</v>
+      </c>
+      <c r="S15">
+        <v>460</v>
+      </c>
+      <c r="T15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AD57D-3FF3-42A3-ABA2-432FE265C0ED}">
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0.15</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
